--- a/Tools/Luban/Datas/Constants.xlsx
+++ b/Tools/Luban/Datas/Constants.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A65714-81AE-4092-AA8B-510D52C97653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51639E2-0A8F-4F27-8051-27E9E6DA8B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4247" yWindow="2856" windowWidth="17426" windowHeight="9051" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>##type</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,14 +37,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体参数 改这里</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -54,6 +46,26 @@
   </si>
   <si>
     <t>MyNewGame</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolutions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array#sep=|,Vector2#sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280,720|1920,1080</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -497,15 +509,15 @@
   <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="9" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" style="9" customWidth="1"/>
     <col min="7" max="9" width="13.5546875" customWidth="1"/>
@@ -545,10 +557,10 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -567,16 +579,16 @@
     </row>
     <row r="3" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -594,10 +606,18 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>

--- a/Tools/Luban/Datas/Constants.xlsx
+++ b/Tools/Luban/Datas/Constants.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51639E2-0A8F-4F27-8051-27E9E6DA8B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE00A1-1FAB-4A54-96AC-A110920C31E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Abilities" sheetId="1" r:id="rId1"/>
+    <sheet name="Constants" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Abilities!$A$1:$R$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Constants!$A$1:$R$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>##type</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,23 +49,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Resolutions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>array#sep=|,Vector2#sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1280,720|1920,1080</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +500,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="28.5546875" customWidth="1"/>
@@ -527,7 +515,7 @@
     <col min="13" max="13" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="26.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,14 +541,14 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="21.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="21.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -577,16 +565,14 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
@@ -605,19 +591,11 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -633,7 +611,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -653,7 +631,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -673,7 +651,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -693,7 +671,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -733,7 +711,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -753,7 +731,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -773,7 +751,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -793,7 +771,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -813,7 +791,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -833,7 +811,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -853,7 +831,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -873,7 +851,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -893,7 +871,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -913,7 +891,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -933,7 +911,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -953,7 +931,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -973,7 +951,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -993,7 +971,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1013,7 +991,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1033,7 +1011,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1053,7 +1031,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1073,7 +1051,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1093,7 +1071,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1113,7 +1091,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1133,7 +1111,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1153,7 +1131,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1173,7 +1151,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1193,7 +1171,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1213,7 +1191,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1233,7 +1211,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1253,7 +1231,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1273,7 +1251,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1293,7 +1271,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1313,7 +1291,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1333,7 +1311,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1353,7 +1331,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1373,7 +1351,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1393,7 +1371,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1413,7 +1391,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1433,7 +1411,7 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1453,7 +1431,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1473,7 +1451,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1493,7 +1471,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1513,7 +1491,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1533,7 +1511,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1553,7 +1531,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1573,7 +1551,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1593,7 +1571,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1613,7 +1591,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1633,7 +1611,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1653,7 +1631,7 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1673,7 +1651,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1693,7 +1671,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1713,7 +1691,7 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1733,7 +1711,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1753,7 +1731,7 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1773,7 +1751,7 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1793,7 +1771,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1813,7 +1791,7 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1833,7 +1811,7 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1853,7 +1831,7 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1873,7 +1851,7 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
     </row>
-    <row r="67" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1893,7 +1871,7 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1913,7 +1891,7 @@
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1933,7 +1911,7 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1953,7 +1931,7 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1973,7 +1951,7 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1993,7 +1971,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2013,7 +1991,7 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
     </row>
-    <row r="74" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2033,7 +2011,7 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
     </row>
-    <row r="75" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2053,7 +2031,7 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
     </row>
-    <row r="76" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2073,7 +2051,7 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
     </row>
-    <row r="77" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2093,7 +2071,7 @@
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
     </row>
-    <row r="78" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2113,7 +2091,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
     </row>
-    <row r="79" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2133,7 +2111,7 @@
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
     </row>
-    <row r="80" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2153,7 +2131,7 @@
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
     </row>
-    <row r="81" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2173,7 +2151,7 @@
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2193,7 +2171,7 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2213,7 +2191,7 @@
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
     </row>
-    <row r="84" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2233,7 +2211,7 @@
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
     </row>
-    <row r="85" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2253,7 +2231,7 @@
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
     </row>
-    <row r="86" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2273,7 +2251,7 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
     </row>
-    <row r="87" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2293,7 +2271,7 @@
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
     </row>
-    <row r="88" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2313,7 +2291,7 @@
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
     </row>
-    <row r="89" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2333,7 +2311,7 @@
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2353,7 +2331,7 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
     </row>
-    <row r="91" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2373,7 +2351,7 @@
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
     </row>
-    <row r="92" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2393,7 +2371,7 @@
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
     </row>
-    <row r="93" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2413,7 +2391,7 @@
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
     </row>
-    <row r="94" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2433,7 +2411,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
     </row>
-    <row r="95" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2453,7 +2431,7 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
     </row>
-    <row r="96" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2473,7 +2451,7 @@
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
     </row>
-    <row r="97" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2493,7 +2471,7 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
     </row>
-    <row r="98" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2513,7 +2491,7 @@
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
     </row>
-    <row r="99" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2533,7 +2511,7 @@
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
     </row>
-    <row r="100" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2553,7 +2531,7 @@
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
     </row>
-    <row r="101" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2573,7 +2551,7 @@
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
     </row>
-    <row r="102" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2593,7 +2571,7 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
     </row>
-    <row r="103" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2613,7 +2591,7 @@
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
     </row>
-    <row r="104" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2633,7 +2611,7 @@
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
     </row>
-    <row r="105" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:18" ht="18" x14ac:dyDescent="0.45">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
